--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Reference</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Capacitor_THT:C_Disc_D9.0mm_W2.5mm_P5.00mm</t>
   </si>
   <si>
-    <t>Vishay</t>
-  </si>
-  <si>
-    <t>565R20GAP10</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1 </t>
   </si>
   <si>
@@ -187,6 +181,15 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>AR211C104K4RTR2</t>
+  </si>
+  <si>
+    <t>Kyocera</t>
+  </si>
+  <si>
+    <t>0.1uF / 100nF</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1052,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1061,7 @@
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1082,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1099,242 +1102,244 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="4">
         <v>2222</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -1343,44 +1348,44 @@
         <v>220</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
